--- a/UseCaseScenarij/UvidUKartonPacijenta.xlsx
+++ b/UseCaseScenarij/UvidUKartonPacijenta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdnaN\Desktop\OOAD scenariji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdnaN\Desktop\update ovo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,9 +101,6 @@
     <t>pacijenta</t>
   </si>
   <si>
-    <t>Tok događaja - nespješan završetak</t>
-  </si>
-  <si>
     <t xml:space="preserve">2. Omogućuje ponovni </t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>unos/pretragu</t>
+  </si>
+  <si>
+    <t>Alternativni tok događaja - neuspješan završetak</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
@@ -658,7 +658,7 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
@@ -669,7 +669,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
@@ -711,7 +711,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
@@ -720,7 +720,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
@@ -788,7 +788,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -803,25 +803,25 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
